--- a/files/Diagram.xlsx
+++ b/files/Diagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Univer\2.2\ПИС\ЛР3\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E37C48-315A-46CD-B9BC-36A0E914741F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062ADB9D-6F34-4413-8361-D22E1CF35EC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,7 +195,7 @@
             <c:numRef>
               <c:f>'[1]S&amp;P middle'!$A$2:$A$253</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="252"/>
                 <c:pt idx="0">
                   <c:v>44287</c:v>
@@ -1750,7 +1750,7 @@
             <c:numRef>
               <c:f>'[1]S&amp;P middle'!$A$2:$A$253</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="252"/>
                 <c:pt idx="0">
                   <c:v>44287</c:v>
@@ -3305,7 +3305,7 @@
             <c:numRef>
               <c:f>'[1]S&amp;P middle'!$A$2:$A$253</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="252"/>
                 <c:pt idx="0">
                   <c:v>44287</c:v>
@@ -5644,20 +5644,6 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Date</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>Middle</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Open</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>Close</v>
-          </cell>
-        </row>
         <row r="2">
           <cell r="A2">
             <v>44287</v>
